--- a/mapping.xlsx
+++ b/mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhymacbookair/IdeaProjects/excel-merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FF4E0C-C09C-7942-9934-4CAF53F0D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEAA99C-8664-8F4F-899C-CF607BD64873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{412182DB-8556-7F40-BF7A-6988D7C7DF0F}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="399" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
